--- a/MVCMovie/Uploads/Excels/person1.xlsx
+++ b/MVCMovie/Uploads/Excels/person1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoahuu-main1\MvcMovie\Uploads\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E503FC-F881-4DD4-9581-C1E9503EE8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01641E4-81C0-4C68-A5D7-57E4ABAD4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E0B8376-45F9-4EE8-9E29-7552D6C82122}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E0B8376-45F9-4EE8-9E29-7552D6C82122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>PersonId</t>
   </si>
@@ -72,6 +70,21 @@
   </si>
   <si>
     <t>Thai Binh</t>
+  </si>
+  <si>
+    <t>PS006</t>
+  </si>
+  <si>
+    <t>Nguyen Van F</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>PS007</t>
+  </si>
+  <si>
+    <t>Le Thi G</t>
   </si>
 </sst>
 </file>
@@ -82,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -424,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B126C5E-400E-47B8-842A-1AA448B358BF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,6 +492,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
